--- a/src/main/resources/example_excel/zhangsan-20180724185142.xlsx
+++ b/src/main/resources/example_excel/zhangsan-20180724185142.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjiao/Downloads/µÁ»›≤‚ ‘ ˝æ›/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51793C6A-370D-7C48-8F35-D2B045FA9C4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C3A294-0A83-6944-9CAB-1AB0AA5D7CEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1240" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -48,12 +49,6 @@
   </si>
   <si>
     <t>用户id</t>
-  </si>
-  <si>
-    <t>zhangsan</t>
-  </si>
-  <si>
-    <t>Zhang, San</t>
   </si>
   <si>
     <t>年龄</t>
@@ -93,6 +88,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>C/C0 /%</t>
@@ -115,69 +111,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>左拇指</t>
   </si>
   <si>
-    <t>Left thumb</t>
+    <t>张三</t>
   </si>
   <si>
-    <t>Left index finger</t>
-  </si>
-  <si>
-    <t>Left middle finger</t>
-  </si>
-  <si>
-    <t>Left ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left little thumb</t>
-  </si>
-  <si>
-    <t>Right thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right index finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right middle finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right little thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right knee joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>left elbow joint</t>
-  </si>
-  <si>
-    <t>left elbow joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Right middle finger</t>
+    <t>男</t>
   </si>
 </sst>
 </file>
@@ -187,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,7 +163,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +520,7 @@
   <dimension ref="A1:G1213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -587,80 +536,65 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3">
         <v>43305.785902777781</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>33824</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -669,34 +603,28 @@
       <c r="B8">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
@@ -715,9 +643,7 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
@@ -736,9 +662,7 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
@@ -757,9 +681,7 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
@@ -776,11 +698,9 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4">
@@ -799,9 +719,7 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
@@ -820,9 +738,7 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
@@ -839,11 +755,9 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4">
@@ -862,6 +776,7 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4">
@@ -1076,7 +991,7 @@
         <v>50.575135290685125</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -22375,6 +22290,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{012085FF-A422-9348-A68E-E0809B9887FB}">
+      <formula1>"左拇指,左食指,左中指,左无名指,左小指,右拇指,右食指,右中指,右无名指,右小指,左腕关节,右腕关节,左肘关节,右肘关节,左膝关节,右膝关节"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{B3A39CAC-345D-AF4E-8D30-9EA4D43637B2}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
